--- a/data/trans_orig/Q17B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q17B-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3369679462961198</v>
+        <v>0.3356570333386006</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4081237647996176</v>
+        <v>0.4088629881581303</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4216094090132429</v>
+        <v>0.4240228502331061</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2730736300492516</v>
+        <v>0.2753228517098206</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.443009974133562</v>
+        <v>0.4427521439634141</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4826928206852154</v>
+        <v>0.4810024006733321</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4966483932550205</v>
+        <v>0.4982672983629015</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3573429243565587</v>
+        <v>0.35588717850967</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4025992210157218</v>
+        <v>0.4039981436595523</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4639504444039894</v>
+        <v>0.4647900856124367</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4819208427270661</v>
+        <v>0.4839166024693642</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3320951520036111</v>
+        <v>0.3322909908487668</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4197833662450139</v>
+        <v>0.4194346870053267</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5146663463466007</v>
+        <v>0.5144759951772865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5843404635687059</v>
+        <v>0.5868866075967741</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3903985458040741</v>
+        <v>0.3908639554896344</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5355933097214545</v>
+        <v>0.5385814111422227</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5912994882701371</v>
+        <v>0.591788717733036</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6424756296881926</v>
+        <v>0.6461311749149121</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4320133427448007</v>
+        <v>0.4321749815577768</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4718067524068788</v>
+        <v>0.4702158359475662</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5366420228092198</v>
+        <v>0.5414249319454374</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5919049409637186</v>
+        <v>0.5896779513386957</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3949469915415358</v>
+        <v>0.3974996534589438</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.3256398904655743</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2577787768615198</v>
+        <v>0.2577787768615199</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1531735823674138</v>
+        <v>0.1513077693367355</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.210710359095582</v>
+        <v>0.2120219073966952</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2485705078286416</v>
+        <v>0.2487336173792339</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.198226799804954</v>
+        <v>0.1964156927936346</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2813811065997855</v>
+        <v>0.2797962345322609</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3287926614018991</v>
+        <v>0.3285039416707304</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3375853959497166</v>
+        <v>0.339622990750156</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.27037597386761</v>
+        <v>0.2700900588168361</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2208945327707161</v>
+        <v>0.2232253918282435</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2738684044540001</v>
+        <v>0.2735750452155365</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2990312615566918</v>
+        <v>0.3022841269310135</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.238804606744306</v>
+        <v>0.2383256741373294</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2020118223978466</v>
+        <v>0.2041451936858237</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2669867611494303</v>
+        <v>0.2737069331557383</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3139474032437398</v>
+        <v>0.31778922372773</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2536243874510321</v>
+        <v>0.2521245056112598</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3476184574275917</v>
+        <v>0.3488149684360641</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3991717099865378</v>
+        <v>0.3973090651807876</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4183948808794475</v>
+        <v>0.4249837767669928</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3259578056199001</v>
+        <v>0.3294262899069132</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2645522551592928</v>
+        <v>0.2645143858905634</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3175403624094486</v>
+        <v>0.3189479592132804</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3529641005789887</v>
+        <v>0.3549351485962378</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2787276871882686</v>
+        <v>0.2789550145782088</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.2427359994115009</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2504552696601713</v>
+        <v>0.2504552696601714</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2667572853550761</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1540054505617197</v>
+        <v>0.1529993578368574</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1475081617877439</v>
+        <v>0.1497684913746746</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1977769247265384</v>
+        <v>0.1996850159969167</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2094033482252715</v>
+        <v>0.207790158953524</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2249919933091994</v>
+        <v>0.2217277340858901</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2324568902810217</v>
+        <v>0.2350319113952263</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2401867223509503</v>
+        <v>0.2396903070228213</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2969192217321348</v>
+        <v>0.2963289249232698</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2010389698488745</v>
+        <v>0.2027243125757592</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2056022526266137</v>
+        <v>0.2044280923483922</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2314265955922638</v>
+        <v>0.2300091022707966</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.267067890793465</v>
+        <v>0.2681300545820183</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3367211584763168</v>
+        <v>0.3299731183751846</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2472390251656081</v>
+        <v>0.2486989909013939</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3022180169154494</v>
+        <v>0.2970301495530472</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3044779173555677</v>
+        <v>0.3019228223240271</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3155826440096252</v>
+        <v>0.3200089095165333</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.357643017828725</v>
+        <v>0.3636414531724326</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3467889350779089</v>
+        <v>0.3533701029584897</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.419623789627625</v>
+        <v>0.4211985123765323</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3026498903876785</v>
+        <v>0.305445660806155</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2877755613226881</v>
+        <v>0.2839545041473547</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3097719037710143</v>
+        <v>0.3055669793691044</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3451852528481484</v>
+        <v>0.3437232475196957</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2223508262355751</v>
+        <v>0.2247945128815714</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.269228859362534</v>
+        <v>0.2679830145533803</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2936835792733284</v>
+        <v>0.2927356796523887</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2225440325326822</v>
+        <v>0.2222811752728601</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.349380570992816</v>
+        <v>0.3488840077446005</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3917957509089997</v>
+        <v>0.3904357307450537</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3866630711847223</v>
+        <v>0.3831299409762937</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3082437661189794</v>
+        <v>0.3069177871655793</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2925043637280257</v>
+        <v>0.2938224964240619</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3362009752458829</v>
+        <v>0.3370806228003463</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3463239483594817</v>
+        <v>0.3483282412013252</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2713097460065788</v>
+        <v>0.2712519777353705</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2706638929588864</v>
+        <v>0.2698081180901004</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.31840760291135</v>
+        <v>0.3162125388295524</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3502035596488545</v>
+        <v>0.3489454217784541</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2675669440553309</v>
+        <v>0.2683620467474054</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3993892187775253</v>
+        <v>0.398031113045364</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4452211446737582</v>
+        <v>0.4469941888198977</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4491463170218253</v>
+        <v>0.4510472909214557</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3517234255548231</v>
+        <v>0.3519577372759371</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3277968356275481</v>
+        <v>0.3278481728783765</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3745276077000888</v>
+        <v>0.3735997850143711</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3882578292199101</v>
+        <v>0.3906051274194063</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3013076135464863</v>
+        <v>0.3031359575718225</v>
       </c>
     </row>
     <row r="16">
